--- a/Technology/Hardware/Lam Research.xlsx
+++ b/Technology/Hardware/Lam Research.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A1F854-D08C-B944-B423-C6ADEAFD88C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4749AB-11B4-EB4A-BA46-65E3E70605C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2520,13 +2520,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>548.85</v>
+    <v>600.29</v>
     <v>299.59199999999998</v>
-    <v>1.5072000000000001</v>
-    <v>-9.33</v>
-    <v>-1.772E-2</v>
-    <v>1</v>
-    <v>1.934E-3</v>
+    <v>1.5015000000000001</v>
+    <v>-9.8800000000000008</v>
+    <v>-1.6500999999999998E-2</v>
+    <v>-0.55000000000000004</v>
+    <v>-9.3399999999999993E-4</v>
     <v>USD</v>
     <v>Lam Research Corporation is a supplier of wafer fabrication equipment and services to the semiconductor industry. The Company designs, manufactures, markets, refurbishes, and services semiconductor processing equipment used in the fabrication of integrated circuits. Its products and services are designed to help its customers build devices that are used in a variety of electronic products, including mobile phones, personal computers, servers, wearables, automotive vehicles, and data storage devices. Its product families include ALTUS, SABRE, SOLA, SPEED, Striker, VECTOR, Flex, Kiyo, Syndion, Versys Metal, Coronus, DV-Prime , Da Vinci , EOS , and SP Series. Its customer base includes semiconductor memory, foundry, and integrated device manufacturers (IDMs) that make products, such as non-volatile memory (NVM), dynamic random-access memory (DRAM) and logic devices. It offers services in areas, such as nanoscale applications enablement, chemistry, plasma and fluidics, and others.</v>
     <v>17700</v>
@@ -2534,25 +2534,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>4650 Cushing Blvd, FREMONT, CA, 94538 US</v>
-    <v>524.32889999999998</v>
+    <v>595.69000000000005</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45037.998028425784</v>
+    <v>45065.94942747656</v>
     <v>0</v>
-    <v>513.83000000000004</v>
-    <v>69661360000</v>
+    <v>588.29999999999995</v>
+    <v>79107746830</v>
     <v>LAM RESEARCH CORPORATION</v>
     <v>LAM RESEARCH CORPORATION</v>
-    <v>524.19000000000005</v>
-    <v>14.659800000000001</v>
-    <v>526.52</v>
-    <v>517.19000000000005</v>
-    <v>518.19000000000005</v>
-    <v>134692000</v>
+    <v>595.26</v>
+    <v>16.6706</v>
+    <v>598.74</v>
+    <v>588.86</v>
+    <v>588.30999999999995</v>
+    <v>134340500</v>
     <v>LRCX</v>
     <v>LAM RESEARCH CORPORATION (XNAS:LRCX)</v>
-    <v>1438730</v>
-    <v>1423428</v>
+    <v>1225248</v>
+    <v>1361220</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -3140,10 +3140,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO94" sqref="AO94"/>
+      <selection pane="bottomRight" activeCell="AK123" sqref="AK123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5307,15 +5307,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>4.0437221974130315</v>
+        <v>4.5920687141882013</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>15.126391715954231</v>
+        <v>17.17759696791904</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>27.279240613398912</v>
+        <v>30.978425631647372</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -14743,7 +14743,7 @@
       </c>
       <c r="AT95" s="58" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>1.5072000000000001</v>
+        <v>1.5015000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14988,7 +14988,7 @@
       </c>
       <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>0.10583496000000001</v>
+        <v>0.105589575</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15354,7 +15354,7 @@
       </c>
       <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>6.6981479488558857E-2</v>
+        <v>5.9458682786005482E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15477,7 +15477,7 @@
       </c>
       <c r="AT101" s="50" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>69661360000</v>
+        <v>79107746830</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15600,7 +15600,7 @@
       </c>
       <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.93301852051144119</v>
+        <v>0.94054131721399448</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15723,7 +15723,7 @@
       </c>
       <c r="AT103" s="38">
         <f>AT99+AT101</f>
-        <v>74662355000</v>
+        <v>84108741830</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16006,7 +16006,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>0.10094046305921235</v>
+        <v>0.10125937707934199</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16200,7 +16200,7 @@
       <c r="AP107" s="40"/>
       <c r="AQ107" s="43">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>51113736712.072609</v>
+        <v>50899980871.374672</v>
       </c>
       <c r="AR107" s="44" t="s">
         <v>148</v>
@@ -16231,7 +16231,7 @@
       </c>
       <c r="AQ108" s="43">
         <f>AQ107+AQ106</f>
-        <v>54900664355.586227</v>
+        <v>54686908514.88829</v>
       </c>
       <c r="AR108" s="44" t="s">
         <v>144</v>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="AT108" s="48">
         <f>AT105</f>
-        <v>0.10094046305921235</v>
+        <v>0.10125937707934199</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="AN110" s="50">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>43726269110.481224</v>
+        <v>43538161533.425041</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16283,7 +16283,7 @@
       </c>
       <c r="AN113" s="50">
         <f>AN110+AN111-AN112</f>
-        <v>42383006110.481224</v>
+        <v>42194898533.425041</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="AN115" s="53">
         <f>AN113/AN114</f>
-        <v>405.60484801152967</v>
+        <v>403.80466080907394</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16310,7 +16310,7 @@
       </c>
       <c r="AN116" s="59" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>517.19000000000005</v>
+        <v>588.86</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="AN117" s="55">
         <f>AN115/AN116-1</f>
-        <v>-0.21575272528175404</v>
+        <v>-0.31426033215182914</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Lam Research.xlsx
+++ b/Technology/Hardware/Lam Research.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4749AB-11B4-EB4A-BA46-65E3E70605C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7BB074-FB62-1949-8D1C-09118762036B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2520,13 +2520,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>600.29</v>
+    <v>644.59990000000005</v>
     <v>299.59199999999998</v>
-    <v>1.5015000000000001</v>
-    <v>-9.8800000000000008</v>
-    <v>-1.6500999999999998E-2</v>
-    <v>-0.55000000000000004</v>
-    <v>-9.3399999999999993E-4</v>
+    <v>1.4748000000000001</v>
+    <v>14.07</v>
+    <v>2.3224999999999999E-2</v>
     <v>USD</v>
     <v>Lam Research Corporation is a supplier of wafer fabrication equipment and services to the semiconductor industry. The Company designs, manufactures, markets, refurbishes, and services semiconductor processing equipment used in the fabrication of integrated circuits. Its products and services are designed to help its customers build devices that are used in a variety of electronic products, including mobile phones, personal computers, servers, wearables, automotive vehicles, and data storage devices. Its product families include ALTUS, SABRE, SOLA, SPEED, Striker, VECTOR, Flex, Kiyo, Syndion, Versys Metal, Coronus, DV-Prime , Da Vinci , EOS , and SP Series. Its customer base includes semiconductor memory, foundry, and integrated device manufacturers (IDMs) that make products, such as non-volatile memory (NVM), dynamic random-access memory (DRAM) and logic devices. It offers services in areas, such as nanoscale applications enablement, chemistry, plasma and fluidics, and others.</v>
     <v>17700</v>
@@ -2534,25 +2532,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>4650 Cushing Blvd, FREMONT, CA, 94538 US</v>
-    <v>595.69000000000005</v>
+    <v>624.48</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45065.94942747656</v>
+    <v>45099.999960520312</v>
     <v>0</v>
-    <v>588.29999999999995</v>
-    <v>79107746830</v>
+    <v>598.41999999999996</v>
+    <v>83273645735</v>
     <v>LAM RESEARCH CORPORATION</v>
     <v>LAM RESEARCH CORPORATION</v>
-    <v>595.26</v>
-    <v>16.6706</v>
-    <v>598.74</v>
-    <v>588.86</v>
-    <v>588.30999999999995</v>
+    <v>601.1</v>
+    <v>17.259</v>
+    <v>605.79999999999995</v>
+    <v>619.87</v>
     <v>134340500</v>
     <v>LRCX</v>
     <v>LAM RESEARCH CORPORATION (XNAS:LRCX)</v>
-    <v>1225248</v>
-    <v>1361220</v>
+    <v>928</v>
+    <v>1459843</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -2584,8 +2581,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2606,7 +2601,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2623,7 +2617,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2634,16 +2628,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2709,19 +2700,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2766,9 +2751,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2776,9 +2758,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3143,7 +3122,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AJ94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK123" sqref="AK123"/>
+      <selection pane="bottomRight" activeCell="AL115" sqref="AL115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5307,15 +5286,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>4.5920687141882013</v>
+        <v>4.8338919842812222</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>17.17759696791904</v>
+        <v>18.082187671949146</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>30.978425631647372</v>
+        <v>32.609782794364122</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -14743,7 +14722,7 @@
       </c>
       <c r="AT95" s="58" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>1.5015000000000001</v>
+        <v>1.4748000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14988,7 +14967,7 @@
       </c>
       <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>0.105589575</v>
+        <v>0.10444014000000001</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15354,7 +15333,7 @@
       </c>
       <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>5.9458682786005482E-2</v>
+        <v>5.6652680298217926E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15477,7 +15456,7 @@
       </c>
       <c r="AT101" s="50" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>79107746830</v>
+        <v>83273645735</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15600,7 +15579,7 @@
       </c>
       <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.94054131721399448</v>
+        <v>0.94334731970178209</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15723,7 +15702,7 @@
       </c>
       <c r="AT103" s="38">
         <f>AT99+AT101</f>
-        <v>84108741830</v>
+        <v>88274640735</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16006,7 +15985,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>0.10125937707934199</v>
+        <v>0.10037941341636322</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16200,7 +16179,7 @@
       <c r="AP107" s="40"/>
       <c r="AQ107" s="43">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>50899980871.374672</v>
+        <v>51494176707.918564</v>
       </c>
       <c r="AR107" s="44" t="s">
         <v>148</v>
@@ -16231,7 +16210,7 @@
       </c>
       <c r="AQ108" s="43">
         <f>AQ107+AQ106</f>
-        <v>54686908514.88829</v>
+        <v>55281104351.432182</v>
       </c>
       <c r="AR108" s="44" t="s">
         <v>144</v>
@@ -16241,7 +16220,7 @@
       </c>
       <c r="AT108" s="48">
         <f>AT105</f>
-        <v>0.10125937707934199</v>
+        <v>0.10037941341636322</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16256,7 +16235,7 @@
       </c>
       <c r="AN110" s="50">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>43538161533.425041</v>
+        <v>44061075518.848846</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16283,7 +16262,7 @@
       </c>
       <c r="AN113" s="50">
         <f>AN110+AN111-AN112</f>
-        <v>42194898533.425041</v>
+        <v>42717812518.848846</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16301,7 +16280,7 @@
       </c>
       <c r="AN115" s="53">
         <f>AN113/AN114</f>
-        <v>403.80466080907394</v>
+        <v>408.80894122816568</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16310,7 +16289,7 @@
       </c>
       <c r="AN116" s="59" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>588.86</v>
+        <v>619.87</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16319,7 +16298,7 @@
       </c>
       <c r="AN117" s="55">
         <f>AN115/AN116-1</f>
-        <v>-0.31426033215182914</v>
+        <v>-0.34049245611472456</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Lam Research.xlsx
+++ b/Technology/Hardware/Lam Research.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7BB074-FB62-1949-8D1C-09118762036B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB7DA36-7DED-724A-BBF0-521FCA7F4696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -391,9 +391,6 @@
   </si>
   <si>
     <t>Income Tax Expense</t>
-  </si>
-  <si>
-    <t>FCF Growth YoY</t>
   </si>
   <si>
     <t>WACC</t>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -551,16 +545,48 @@
   <si>
     <t>Buy/Sell</t>
   </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +861,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,99 +922,100 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,7 +1068,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>LRCX</a:t>
+              <a:t>Lam Research</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1123,10 +1106,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6290429042904298E-2"/>
-          <c:y val="0.12955332291742114"/>
-          <c:w val="0.87618481848184815"/>
-          <c:h val="0.70521609568843313"/>
+          <c:x val="8.9639669421487614E-2"/>
+          <c:y val="0.14241977602645442"/>
+          <c:w val="0.83631074380165304"/>
+          <c:h val="0.65282689993850929"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1180,6 +1163,126 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AL$3</c:f>
@@ -1302,7 +1405,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FA33-4545-88B7-4C706EC87509}"/>
+              <c16:uniqueId val="{00000000-ED50-4241-94CC-8297059EA5F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1311,11 +1414,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1353,129 +1456,249 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AL$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AL$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>3000000</c:v>
+                  <c:v>1700000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2400000</c:v>
+                  <c:v>-2700000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6800000</c:v>
+                  <c:v>2300000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16100000</c:v>
+                  <c:v>9300000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3800000</c:v>
+                  <c:v>-8800000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13600000</c:v>
+                  <c:v>6100000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22400000</c:v>
+                  <c:v>9900000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39700000</c:v>
+                  <c:v>18900000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75600000</c:v>
+                  <c:v>37800000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150976000</c:v>
+                  <c:v>89211000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>242793000</c:v>
+                  <c:v>141091000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-12169000</c:v>
+                  <c:v>-33634000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-116860000</c:v>
+                  <c:v>-144599000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-61989000</c:v>
+                  <c:v>-112913000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>282828000</c:v>
+                  <c:v>204756000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>171330000</c:v>
+                  <c:v>52106000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-63657000</c:v>
+                  <c:v>-90051000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29322000</c:v>
+                  <c:v>-7739000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>146023000</c:v>
+                  <c:v>82988000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>428788000</c:v>
+                  <c:v>299341000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>465970000</c:v>
+                  <c:v>335755000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>885162000</c:v>
+                  <c:v>685816000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>631680000</c:v>
+                  <c:v>439349000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-184179000</c:v>
+                  <c:v>-302148000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>502536000</c:v>
+                  <c:v>346669000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>881015000</c:v>
+                  <c:v>723748000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>344205000</c:v>
+                  <c:v>168723000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>431182000</c:v>
+                  <c:v>113879000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1077309000</c:v>
+                  <c:v>632289000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1092452000</c:v>
+                  <c:v>655577000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1385918000</c:v>
+                  <c:v>914049000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2236312000</c:v>
+                  <c:v>1697763000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3575571000</c:v>
+                  <c:v>2380681000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2873115000</c:v>
+                  <c:v>2191430000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3020943000</c:v>
+                  <c:v>2251753000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4886552000</c:v>
+                  <c:v>3908458000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5711612000</c:v>
+                  <c:v>4605286000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FA33-4545-88B7-4C706EC87509}"/>
+              <c16:uniqueId val="{00000001-ED50-4241-94CC-8297059EA5F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1484,11 +1707,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1526,9 +1749,129 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AL$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AL$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1648,7 +1991,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FA33-4545-88B7-4C706EC87509}"/>
+              <c16:uniqueId val="{00000002-ED50-4241-94CC-8297059EA5F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1662,11 +2005,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="43775760"/>
-        <c:axId val="43821312"/>
+        <c:axId val="1243092960"/>
+        <c:axId val="1243094688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43775760"/>
+        <c:axId val="1243092960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,7 +2037,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1706,7 +2049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43821312"/>
+        <c:crossAx val="1243094688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1714,7 +2057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43821312"/>
+        <c:axId val="1243094688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1751,7 +2094,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1763,7 +2106,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43775760"/>
+        <c:crossAx val="1243092960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1781,10 +2124,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34872316207998755"/>
-          <c:y val="0.91196188190011074"/>
-          <c:w val="0.30255367584002496"/>
-          <c:h val="5.3872546483594935E-2"/>
+          <c:x val="0.3431097806989003"/>
+          <c:y val="0.91766411793838065"/>
+          <c:w val="0.31378033448298304"/>
+          <c:h val="5.9222842235076449E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2363,23 +2706,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>1603374</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B8806D-3F28-52B1-F6F1-140C110D52CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632BD868-3CD1-3FC3-0E59-90A261E93DBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,6 +2741,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.8390000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2520,11 +2917,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>644.59990000000005</v>
+    <v>663.83249999999998</v>
     <v>299.59199999999998</v>
-    <v>1.4748000000000001</v>
-    <v>14.07</v>
-    <v>2.3224999999999999E-2</v>
+    <v>1.4631000000000001</v>
+    <v>11.21</v>
+    <v>1.7541999999999999E-2</v>
+    <v>-1.24</v>
+    <v>-1.9070000000000001E-3</v>
     <v>USD</v>
     <v>Lam Research Corporation is a supplier of wafer fabrication equipment and services to the semiconductor industry. The Company designs, manufactures, markets, refurbishes, and services semiconductor processing equipment used in the fabrication of integrated circuits. Its products and services are designed to help its customers build devices that are used in a variety of electronic products, including mobile phones, personal computers, servers, wearables, automotive vehicles, and data storage devices. Its product families include ALTUS, SABRE, SOLA, SPEED, Striker, VECTOR, Flex, Kiyo, Syndion, Versys Metal, Coronus, DV-Prime , Da Vinci , EOS , and SP Series. Its customer base includes semiconductor memory, foundry, and integrated device manufacturers (IDMs) that make products, such as non-volatile memory (NVM), dynamic random-access memory (DRAM) and logic devices. It offers services in areas, such as nanoscale applications enablement, chemistry, plasma and fluidics, and others.</v>
     <v>17700</v>
@@ -2532,24 +2931,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>4650 Cushing Blvd, FREMONT, CA, 94538 US</v>
-    <v>624.48</v>
+    <v>654.38430000000005</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45099.999960520312</v>
+    <v>45132.992032546092</v>
     <v>0</v>
-    <v>598.41999999999996</v>
-    <v>83273645735</v>
+    <v>638.04999999999995</v>
+    <v>87353566720</v>
     <v>LAM RESEARCH CORPORATION</v>
     <v>LAM RESEARCH CORPORATION</v>
-    <v>601.1</v>
-    <v>17.259</v>
-    <v>605.79999999999995</v>
-    <v>619.87</v>
+    <v>639.03</v>
+    <v>17.792400000000001</v>
+    <v>639.03</v>
+    <v>650.24</v>
+    <v>649</v>
     <v>134340500</v>
     <v>LRCX</v>
     <v>LAM RESEARCH CORPORATION (XNAS:LRCX)</v>
-    <v>928</v>
-    <v>1459843</v>
+    <v>908721</v>
+    <v>1258140</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -2581,6 +2981,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2601,6 +3003,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2617,7 +3020,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2628,13 +3031,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2700,13 +3106,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2751,6 +3163,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2758,6 +3173,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3119,10 +3537,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL115" sqref="AL115"/>
+      <selection pane="bottomRight" activeCell="AO91" sqref="AO91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3247,19 +3665,19 @@
       <c r="AL1" s="8">
         <v>2022</v>
       </c>
-      <c r="AM1" s="27">
+      <c r="AM1" s="23">
         <v>2023</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2024</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2025</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2026</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3268,124 +3686,124 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9"/>
       <c r="AQ2" s="9"/>
@@ -3505,202 +3923,202 @@
       <c r="AL3" s="1">
         <v>17227039000</v>
       </c>
-      <c r="AM3" s="28">
-        <v>17613000000</v>
-      </c>
-      <c r="AN3" s="28">
-        <v>14879000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>17342000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>22089000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>24376000000</v>
+      <c r="AM3" s="24">
+        <v>17329000000</v>
+      </c>
+      <c r="AN3" s="24">
+        <v>14342000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>16891000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>20825000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>23858000000</v>
       </c>
       <c r="AR3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AS3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AT3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="66">
         <f>(C3/B3)-1</f>
         <v>-0.25872093023255816</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="66">
         <f>(D3/C3)-1</f>
         <v>1.9411764705882355</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="66">
         <f>(E3/D3)-1</f>
         <v>0.67999999999999994</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="66">
         <f t="shared" ref="F4:AQ4" si="0">(F3/E3)-1</f>
         <v>8.9682539682539586E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="66">
         <f t="shared" si="0"/>
         <v>5.0983248361253786E-3</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="66">
         <f t="shared" si="0"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="66">
         <f t="shared" si="0"/>
         <v>0.57306763285024154</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="66">
         <f t="shared" si="0"/>
         <v>0.86142034548944335</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="66">
         <f t="shared" si="0"/>
         <v>0.64613116106413693</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="66">
         <f t="shared" si="0"/>
         <v>0.571104810895392</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="66">
         <f t="shared" si="0"/>
         <v>-0.20067938791295536</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="66">
         <f t="shared" si="0"/>
         <v>5.0061651789099049E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="66">
         <f t="shared" si="0"/>
         <v>-0.38441609521692288</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="66">
         <f t="shared" si="0"/>
         <v>0.89946369732465992</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="66">
         <f t="shared" si="0"/>
         <v>0.23483080063082618</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="66">
         <f t="shared" si="0"/>
         <v>-0.37944412020352825</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="66">
         <f t="shared" si="0"/>
         <v>-0.19921239638050114</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="66">
         <f t="shared" si="0"/>
         <v>0.2392794815911361</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="66">
         <f t="shared" si="0"/>
         <v>0.60527744121989935</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="66">
         <f t="shared" si="0"/>
         <v>9.2993258358164965E-2</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="66">
         <f t="shared" si="0"/>
         <v>0.56291640760919548</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="66">
         <f t="shared" si="0"/>
         <v>-3.5714897980811844E-2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="66">
         <f t="shared" si="0"/>
         <v>-0.54909651296551676</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="66">
         <f t="shared" si="0"/>
         <v>0.91207818299451771</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="66">
         <f t="shared" si="0"/>
         <v>0.517353742848359</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="66">
         <f t="shared" si="0"/>
         <v>-0.1768237445613281</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="66">
         <f t="shared" si="0"/>
         <v>0.35034023815169779</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="66">
         <f t="shared" si="0"/>
         <v>0.28019353605363384</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="66">
         <f t="shared" si="0"/>
         <v>0.14151492769423535</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="66">
         <f t="shared" si="0"/>
         <v>0.11913744611462485</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="66">
         <f t="shared" si="0"/>
         <v>0.36149603806932951</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="66">
         <f t="shared" si="0"/>
         <v>0.38227143288551235</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="66">
         <f t="shared" si="0"/>
         <v>-0.12850404053517028</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="66">
         <f t="shared" si="0"/>
         <v>4.0521532007003813E-2</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="66">
         <f t="shared" si="0"/>
         <v>0.45610098662622889</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="66">
         <f t="shared" si="0"/>
         <v>0.17782458131497347</v>
       </c>
       <c r="AM4" s="16">
         <f t="shared" si="0"/>
-        <v>2.2404372568030961E-2</v>
+        <v>5.9186607750756348E-3</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>-0.15522625333560436</v>
+        <v>-0.17237001558081833</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>0.16553531823375223</v>
+        <v>0.17772974480546644</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27372852035520712</v>
+        <v>0.23290509738914222</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10353569650052052</v>
+        <v>0.14564225690276111</v>
       </c>
       <c r="AR4" s="17">
         <f>(AL4+AK4+AJ4)/3</f>
@@ -3715,7 +4133,7 @@
         <v>0.31385135877155435</v>
       </c>
       <c r="AU4" s="17">
-        <f>(AL105+AK105+AJ105)/3</f>
+        <f>(AL106+AK106+AJ106)/3</f>
         <v>4.7368144986086436E-2</v>
       </c>
     </row>
@@ -3951,16 +4369,16 @@
         <v>7871807000</v>
       </c>
       <c r="AR6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AS6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AT6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AU6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4091,7 +4509,7 @@
         <v>0.26729999999999998</v>
       </c>
       <c r="AU7" s="20">
-        <f>AL106/AL3</f>
+        <f>AL107/AL3</f>
         <v>0.14823441219352901</v>
       </c>
     </row>
@@ -4100,28 +4518,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1">
         <v>76300000</v>
@@ -4213,7 +4631,7 @@
     </row>
     <row r="9" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -4364,16 +4782,16 @@
         <v>9.3123838635298842E-2</v>
       </c>
       <c r="AR9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AS9" s="19" t="s">
+      <c r="AT9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AU9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4381,115 +4799,115 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1">
         <v>237708000</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1">
         <v>308075000</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR10" s="17">
         <f>AL9</f>
@@ -4505,7 +4923,7 @@
       </c>
       <c r="AU10" s="20">
         <f>AL89</f>
-        <v>0</v>
+        <v>3.2136050774599162E-2</v>
       </c>
     </row>
     <row r="11" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4513,115 +4931,115 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -4740,21 +5158,21 @@
         <v>885737000</v>
       </c>
       <c r="AR12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AS12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AT12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4959,13 +5377,13 @@
         <v>-22814000</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1">
         <v>-31933000</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1">
         <v>2249000</v>
@@ -4974,19 +5392,19 @@
         <v>-3989000</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1">
         <v>15834000</v>
@@ -4998,43 +5416,43 @@
         <v>3232000</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -5153,16 +5571,16 @@
         <v>2489985000</v>
       </c>
       <c r="AR15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AS15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AT15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5280,95 +5698,95 @@
       <c r="AL16" s="1">
         <v>11845217000</v>
       </c>
-      <c r="AR16" s="29">
+      <c r="AR16" s="25">
         <f>(AL35+AK35+AJ35+AI35+AH35)/5</f>
         <v>-5.1390417234791971E-2</v>
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>4.8338919842812222</v>
+        <v>5.0707243839176313</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>18.082187671949146</v>
-      </c>
-      <c r="AU16" s="31">
-        <f>AT101/AL106</f>
-        <v>32.609782794364122</v>
+        <v>18.968108977379472</v>
+      </c>
+      <c r="AU16" s="32">
+        <f>AT101/AL107</f>
+        <v>34.207471186228283</v>
       </c>
     </row>
-    <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1">
         <v>6497000</v>
@@ -5413,7 +5831,7 @@
         <v>184759000</v>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5529,10 +5947,19 @@
         <v>333739000</v>
       </c>
       <c r="AR18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AS18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5647,14 +6074,41 @@
       <c r="AL19" s="10">
         <v>5711612000</v>
       </c>
-      <c r="AR19" s="32">
+      <c r="AM19" s="35">
+        <v>5611000000</v>
+      </c>
+      <c r="AN19" s="35">
+        <v>4543000000</v>
+      </c>
+      <c r="AO19" s="35">
+        <v>5647000000</v>
+      </c>
+      <c r="AP19" s="35">
+        <v>6596000000</v>
+      </c>
+      <c r="AQ19" s="35">
+        <v>8196000000</v>
+      </c>
+      <c r="AR19" s="26">
         <f>AL40-AL56-AL61</f>
         <v>-1343263000</v>
       </c>
+      <c r="AS19" s="30">
+        <f>AT101/AM3</f>
+        <v>5.0408890714986443</v>
+      </c>
+      <c r="AT19" s="31">
+        <f>AT101/AM28</f>
+        <v>19.373157400754046</v>
+      </c>
+      <c r="AU19" s="32">
+        <f>AT101/AM106</f>
+        <v>20.174033884526558</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5670,7 +6124,7 @@
         <v>1.3676470588235294</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AL20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AQ20" si="3">(F19/E19)-1</f>
         <v>-1.2360248447204969</v>
       </c>
       <c r="G20" s="15">
@@ -5801,8 +6255,28 @@
         <f t="shared" si="3"/>
         <v>0.16884297967155582</v>
       </c>
+      <c r="AM20" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.7615342218624042E-2</v>
+      </c>
+      <c r="AN20" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.1903404027802531</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.24301122606207359</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.16805383389410311</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.24257125530624624</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5917,8 +6391,34 @@
       <c r="AL21" s="2">
         <v>0.33150000000000002</v>
       </c>
+      <c r="AM21" s="36">
+        <f>AM19/AM3</f>
+        <v>0.32379248658318427</v>
+      </c>
+      <c r="AN21" s="36">
+        <f t="shared" ref="AN21:AQ21" si="4">AN19/AN3</f>
+        <v>0.31676195788592942</v>
+      </c>
+      <c r="AO21" s="36">
+        <f t="shared" si="4"/>
+        <v>0.33432005209875082</v>
+      </c>
+      <c r="AP21" s="36">
+        <f t="shared" si="4"/>
+        <v>0.31673469387755104</v>
+      </c>
+      <c r="AQ21" s="36">
+        <f t="shared" si="4"/>
+        <v>0.34353256769217871</v>
+      </c>
+      <c r="AT21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU21" s="19" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6033,8 +6533,16 @@
       <c r="AL22" s="10">
         <v>5381822000</v>
       </c>
+      <c r="AT22" s="33">
+        <f>(-1*AL98)/AT101</f>
+        <v>9.333219359128191E-3</v>
+      </c>
+      <c r="AU22" s="34">
+        <f>AL107/AT101</f>
+        <v>2.9233379882304594E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6150,7 +6658,7 @@
         <v>0.31240000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6266,7 +6774,7 @@
         <v>-188708000</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6382,7 +6890,7 @@
         <v>5193114000</v>
       </c>
     </row>
-    <row r="26" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6498,7 +7006,7 @@
         <v>0.30149999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6542,7 +7050,7 @@
         <v>-34526000</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P27" s="1">
         <v>32057000</v>
@@ -6614,7 +7122,7 @@
         <v>587828000</v>
       </c>
     </row>
-    <row r="28" spans="1:44" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6729,10 +7237,25 @@
       <c r="AL28" s="11">
         <v>4605286000</v>
       </c>
+      <c r="AM28" s="37">
+        <v>4509000000</v>
+      </c>
+      <c r="AN28" s="37">
+        <v>3443000000</v>
+      </c>
+      <c r="AO28" s="37">
+        <v>4401000000</v>
+      </c>
+      <c r="AP28" s="37">
+        <v>6122000000</v>
+      </c>
+      <c r="AQ28" s="37">
+        <v>7075000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:44" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6748,139 +7271,159 @@
         <v>3.0434782608695654</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AL29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AQ29" si="5">(F28/E28)-1</f>
         <v>-1.946236559139785</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.6931818181818183</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.62295081967213117</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.90909090909090917</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3600793650793652</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58154263487686486</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.2383851556796677</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.299191294523399</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.2191301461282581</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.8133961545614765</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.74552149875949913</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.7282270755767088</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.91405981055179841</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-11.723349269931516</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6070395719863111</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12164721838972947</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0426084496135575</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.35937773396946116</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.6877175093149184</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.1473483193666683</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0877205634192846</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.76687603972653462</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.32505349003988782</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5522879547589987</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.683125912359686E-2</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3942664248440686</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.85740917609449818</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4022457787099849</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.9494480780919363E-2</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7526774754384142E-2</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.73574011003871198</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17828719152156691</v>
       </c>
+      <c r="AM29" s="16">
+        <f t="shared" si="5"/>
+        <v>-2.0907713440598497E-2</v>
+      </c>
+      <c r="AN29" s="16">
+        <f t="shared" si="5"/>
+        <v>-0.23641605677533817</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.27824571594539638</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.39104748920699839</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.15566808232603724</v>
+      </c>
     </row>
-    <row r="30" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -6995,8 +7538,28 @@
       <c r="AL30" s="2">
         <v>0.26729999999999998</v>
       </c>
+      <c r="AM30" s="38">
+        <f>AM28/AM3</f>
+        <v>0.26019966530094063</v>
+      </c>
+      <c r="AN30" s="38">
+        <f t="shared" ref="AN30:AQ30" si="6">AN28/AN3</f>
+        <v>0.24006414725979641</v>
+      </c>
+      <c r="AO30" s="38">
+        <f t="shared" si="6"/>
+        <v>0.26055295719613997</v>
+      </c>
+      <c r="AP30" s="38">
+        <f t="shared" si="6"/>
+        <v>0.29397358943577429</v>
+      </c>
+      <c r="AQ30" s="38">
+        <f t="shared" si="6"/>
+        <v>0.29654623187190882</v>
+      </c>
     </row>
-    <row r="31" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7111,8 +7674,23 @@
       <c r="AL31" s="12">
         <v>32.92</v>
       </c>
+      <c r="AM31" s="39">
+        <v>33.56</v>
+      </c>
+      <c r="AN31" s="39">
+        <v>25.63</v>
+      </c>
+      <c r="AO31" s="39">
+        <v>32.76</v>
+      </c>
+      <c r="AP31" s="39">
+        <v>45.57</v>
+      </c>
+      <c r="AQ31" s="39">
+        <v>52.67</v>
+      </c>
     </row>
-    <row r="32" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7462,7 +8040,7 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7470,143 +8048,143 @@
         <v>-7.3529411764705881E-3</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AL35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AL35" si="7">(D34-C34)/C34</f>
         <v>0.36296296296296299</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.4073217391304352E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.7558518774696935E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.1280980519815948E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11577869767031719</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.17482517979797979</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18181817806637809</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.8095236975560599E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1122112211221122E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.098901098901099E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.24369281045751634</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1430223086422997E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.24118431535557172</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.7333649626378842E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.4516533956428697E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.431922504669347E-4</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14749010292953285</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.7325844557297417E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.2334482540707922E-3</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5361923579996105E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.10613040897656935</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.1855435401252136E-3</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0152076117679843E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.424956683264911E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7117398155480368E-3</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.38485862352574801</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.1869342097676293E-3</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4693157137699638E-2</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.077558212428064E-2</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.9161047962137258E-2</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.6259454753224139E-2</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.11542631456671572</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.769221148735266E-2</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.5286739553289958E-2</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.2287365813377371E-2</v>
       </c>
     </row>
@@ -7615,115 +8193,115 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -7731,115 +8309,115 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -7847,31 +8425,31 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K38" s="1">
         <v>43675000</v>
@@ -7963,31 +8541,31 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1">
         <v>57334000</v>
@@ -8079,31 +8657,31 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K40" s="1">
         <v>101009000</v>
@@ -8195,31 +8773,31 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K41" s="1">
         <v>195682000</v>
@@ -8311,31 +8889,31 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1">
         <v>171401000</v>
@@ -8427,31 +9005,31 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K43" s="1">
         <v>58041000</v>
@@ -8543,31 +9121,31 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K44" s="10">
         <v>526133000</v>
@@ -8659,31 +9237,31 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K45" s="1">
         <v>117571000</v>
@@ -8775,67 +9353,67 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W46" s="1">
         <v>59741000</v>
@@ -8891,67 +9469,67 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W47" s="1">
         <v>70909000</v>
@@ -9007,67 +9585,67 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W48" s="1">
         <v>130650000</v>
@@ -9123,73 +9701,73 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1">
         <v>178439000</v>
@@ -9201,37 +9779,37 @@
         <v>165256000</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -9239,40 +9817,40 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1">
         <v>26397000</v>
@@ -9281,10 +9859,10 @@
         <v>51745000</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1">
         <v>86231000</v>
@@ -9317,37 +9895,37 @@
         <v>3892000</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -9355,31 +9933,31 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K51" s="1">
         <v>38945000</v>
@@ -9471,31 +10049,31 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K52" s="1">
         <v>156516000</v>
@@ -9587,115 +10165,115 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9703,31 +10281,31 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K54" s="11">
         <v>682649000</v>
@@ -9819,31 +10397,31 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K55" s="1">
         <v>82542000</v>
@@ -9935,31 +10513,31 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1">
         <v>7572000</v>
@@ -9977,10 +10555,10 @@
         <v>20566000</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1">
         <v>315291000</v>
@@ -9992,13 +10570,13 @@
         <v>2500000</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X56" s="1">
         <v>30209000</v>
@@ -10051,79 +10629,79 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1">
         <v>102999000</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1">
         <v>51183000</v>
@@ -10167,67 +10745,67 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="1">
         <v>190885000</v>
@@ -10283,31 +10861,31 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K59" s="1">
         <v>98633000</v>
@@ -10399,31 +10977,31 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K60" s="10">
         <v>188747000</v>
@@ -10515,31 +11093,31 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1">
         <v>95928000</v>
@@ -10631,115 +11209,115 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -10747,115 +11325,115 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1">
         <v>2712000</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y63" s="1">
         <v>102999000</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -10863,46 +11441,46 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P64" s="1">
         <v>-1000000</v>
@@ -10911,16 +11489,16 @@
         <v>-1000000</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V64" s="1">
         <v>969000</v>
@@ -10979,31 +11557,31 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K65" s="1">
         <v>98640000</v>
@@ -11095,115 +11673,115 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -11211,31 +11789,31 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K67" s="10">
         <v>287387000</v>
@@ -11327,31 +11905,31 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1">
         <v>27000</v>
@@ -11369,10 +11947,10 @@
         <v>39000</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R68" s="1">
         <v>128000</v>
@@ -11443,31 +12021,31 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K69" s="1">
         <v>170505000</v>
@@ -11559,31 +12137,31 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K70" s="1">
         <v>-53400000</v>
@@ -11675,31 +12253,31 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K71" s="1">
         <v>278130000</v>
@@ -11791,31 +12369,31 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K72" s="10">
         <v>395262000</v>
@@ -11907,31 +12485,31 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K73" s="11">
         <v>682649000</v>
@@ -12023,115 +12601,115 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -12139,115 +12717,115 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -12255,13 +12833,13 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1">
         <v>9300000</v>
@@ -12330,7 +12908,7 @@
         <v>346669000</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB76" s="1">
         <v>168723000</v>
@@ -12371,13 +12949,13 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1">
         <v>3600000</v>
@@ -12487,13 +13065,13 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1">
         <v>-1800000</v>
@@ -12603,73 +13181,73 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1">
         <v>53042000</v>
@@ -12716,154 +13294,154 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AL80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AL80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.7530973720950657E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3649623953029747E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6373386852922743E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0601547655853687E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7599977326506091E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.2507715458199136E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5736065858043791E-2</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4184605462586561E-2</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8715012690893755E-2</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5547172618429651E-2</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9395333886704374E-2</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8835437785522685E-2</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5052765081720069E-2</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.503821985890901E-2</v>
       </c>
     </row>
@@ -12872,13 +13450,13 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1">
         <v>-14900000</v>
@@ -12988,73 +13566,73 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1">
         <v>152086000</v>
@@ -13104,13 +13682,13 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1">
         <v>-10100000</v>
@@ -13214,83 +13792,83 @@
       <c r="AL83" s="1">
         <v>-1351344000</v>
       </c>
-      <c r="AS83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT83" s="63"/>
+      <c r="AS83" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT83" s="69"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1">
         <v>-39381000</v>
@@ -13334,92 +13912,92 @@
       <c r="AL84" s="1">
         <v>167884000</v>
       </c>
-      <c r="AS84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT84" s="65"/>
+      <c r="AS84" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT84" s="70"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB85" s="1">
         <v>-9236000</v>
@@ -13454,10 +14032,10 @@
       <c r="AL85" s="1">
         <v>604573000</v>
       </c>
-      <c r="AS85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT85" s="24">
+      <c r="AS85" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT85" s="43">
         <f>AL17</f>
         <v>184759000</v>
       </c>
@@ -13467,13 +14045,13 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1">
         <v>100000</v>
@@ -13491,16 +14069,16 @@
         <v>-100000</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N86" s="1">
         <v>103643000</v>
@@ -13577,10 +14155,10 @@
       <c r="AL86" s="1">
         <v>-44751000</v>
       </c>
-      <c r="AS86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT86" s="24">
+      <c r="AS86" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT86" s="43">
         <f>AL56</f>
         <v>7381000</v>
       </c>
@@ -13590,13 +14168,13 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10">
         <v>-3700000</v>
@@ -13700,10 +14278,10 @@
       <c r="AL87" s="10">
         <v>3099674000</v>
       </c>
-      <c r="AS87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT87" s="24">
+      <c r="AS87" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT87" s="43">
         <f>AL61</f>
         <v>4993614000</v>
       </c>
@@ -13713,13 +14291,13 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1">
         <v>-6400000</v>
@@ -13781,212 +14359,212 @@
       <c r="X88" s="1">
         <v>-76803000</v>
       </c>
-      <c r="Y88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z88" s="1" t="s">
-        <v>92</v>
+      <c r="Y88" s="1">
+        <v>-144863000</v>
+      </c>
+      <c r="Z88" s="1">
+        <v>-36390000</v>
       </c>
       <c r="AA88" s="1">
-        <v>-127495000</v>
+        <v>1522000</v>
       </c>
       <c r="AB88" s="1">
-        <v>0</v>
+        <v>-96226000</v>
       </c>
       <c r="AC88" s="1">
-        <v>0</v>
+        <v>-170316000</v>
       </c>
       <c r="AD88" s="1">
-        <v>0</v>
+        <v>48979000</v>
       </c>
       <c r="AE88" s="1">
-        <v>0</v>
+        <v>-193931000</v>
       </c>
       <c r="AF88" s="1">
-        <v>0</v>
+        <v>-206345000</v>
       </c>
       <c r="AG88" s="1">
-        <v>0</v>
+        <v>-174727000</v>
       </c>
       <c r="AH88" s="1">
-        <v>0</v>
+        <v>-288749000</v>
       </c>
       <c r="AI88" s="1">
-        <v>0</v>
+        <v>-310846000</v>
       </c>
       <c r="AJ88" s="1">
-        <v>0</v>
+        <v>-229084000</v>
       </c>
       <c r="AK88" s="1">
-        <v>0</v>
+        <v>-391251000</v>
       </c>
       <c r="AL88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT88" s="34">
+        <v>-553609000</v>
+      </c>
+      <c r="AS88" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT88" s="45">
         <f>AT85/(AT86+AT87)</f>
         <v>3.6944448054837084E-2</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AL89" si="9">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.0793650793650794E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.2104879825200294E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.420289855072464E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.3743961352657008E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.4510556621881E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.918333677046814E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.9434083053435883E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.3097514492811408E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.9453154616302409E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.7698715354374845E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.1211889714563509E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.0917574163103168E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.2371013344615599E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.1259508394531308E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.6238675695214994E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.5670284396749385E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.5207796849552032E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.5624615219730466E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.3364981204530861E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.1032631072390078E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.12981183677346395</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.7054273738199323E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="9"/>
+        <v>-4.7008780634853276E-4</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.6104715907897066E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.7324249857457076E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="9"/>
+        <v>-1.0630717410097738E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.6873834448308065E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.505755201462208E-2</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.1803754108630058E-2</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.606744173827602E-2</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.2200145044951813E-2</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.2806373407922319E-2</v>
+      </c>
+      <c r="AK89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.6750101701404676E-2</v>
+      </c>
+      <c r="AL89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.2136050774599162E-2</v>
+      </c>
+      <c r="AS89" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AL89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.0793650793650794E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.2104879825200294E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.420289855072464E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.3743961352657008E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.4510556621881E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.918333677046814E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.9434083053435883E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.3097514492811408E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.9453154616302409E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.7698715354374845E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.1211889714563509E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.0917574163103168E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.2371013344615599E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.1259508394531308E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.6238675695214994E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.5670284396749385E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.5207796849552032E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.5624615219730466E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.3364981204530861E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.1032631072390078E-2</v>
-      </c>
-      <c r="Y89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.9378347483841121E-2</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AK89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AL89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AS89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT89" s="24">
+      <c r="AT89" s="43">
         <f>AL27</f>
         <v>587828000</v>
       </c>
@@ -13996,67 +14574,67 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1">
         <v>-181108000</v>
@@ -14068,10 +14646,10 @@
         <v>-19457000</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB90" s="1">
         <v>418681000</v>
@@ -14086,30 +14664,30 @@
         <v>40075000</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH90" s="1">
         <v>-115697000</v>
       </c>
       <c r="AI90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS90" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AT90" s="24">
+      <c r="AT90" s="43">
         <f>AL25</f>
         <v>5193114000</v>
       </c>
@@ -14119,28 +14697,28 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1">
         <v>-6600000</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1">
         <v>-24100000</v>
@@ -14229,10 +14807,10 @@
       <c r="AL91" s="1">
         <v>-567819000</v>
       </c>
-      <c r="AS91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT91" s="34">
+      <c r="AS91" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT91" s="45">
         <f>AT89/AT90</f>
         <v>0.11319374078828233</v>
       </c>
@@ -14242,31 +14820,31 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1">
         <v>11300000</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1">
         <v>289968000</v>
@@ -14352,10 +14930,10 @@
       <c r="AL92" s="1">
         <v>1733703000</v>
       </c>
-      <c r="AS92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT92" s="36">
+      <c r="AS92" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT92" s="45">
         <f>AT88*(1-AT91)</f>
         <v>3.2762567778151695E-2</v>
       </c>
@@ -14365,22 +14943,22 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>100000</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1">
         <v>-200000</v>
@@ -14475,23 +15053,23 @@
       <c r="AL93" s="1">
         <v>-553609000</v>
       </c>
-      <c r="AS93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT93" s="65"/>
+      <c r="AS93" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT93" s="70"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10">
         <v>-1700000</v>
@@ -14595,11 +15173,12 @@
       <c r="AL94" s="10">
         <v>612275000</v>
       </c>
-      <c r="AS94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT94" s="37">
-        <v>4.095E-2</v>
+      <c r="AS94" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT94" s="46">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.8390000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14607,73 +15186,73 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1">
         <v>-256047000</v>
@@ -14717,12 +15296,12 @@
       <c r="AL95" s="1">
         <v>-11889000</v>
       </c>
-      <c r="AS95" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT95" s="58" cm="1">
+      <c r="AS95" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT95" s="48" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>1.4748000000000001</v>
+        <v>1.4631000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14730,13 +15309,13 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>900000</v>
@@ -14840,10 +15419,10 @@
       <c r="AL96" s="1">
         <v>5682000</v>
       </c>
-      <c r="AS96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT96" s="37">
+      <c r="AS96" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT96" s="49">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14852,43 +15431,43 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1">
         <v>-18896000</v>
@@ -14906,7 +15485,7 @@
         <v>-39122000</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U97" s="1">
         <v>-167081000</v>
@@ -14962,12 +15541,12 @@
       <c r="AL97" s="1">
         <v>-3865663000</v>
       </c>
-      <c r="AS97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT97" s="36">
+      <c r="AS97" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT97" s="45">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>0.10444014000000001</v>
+        <v>0.105121991</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -14975,91 +15554,91 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE98" s="1">
         <v>-116059000</v>
@@ -15085,23 +15664,23 @@
       <c r="AL98" s="1">
         <v>-815290000</v>
       </c>
-      <c r="AS98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT98" s="65"/>
+      <c r="AS98" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT98" s="70"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1">
         <v>12000000</v>
@@ -15152,7 +15731,7 @@
         <v>-289142000</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V99" s="1">
         <v>367325000</v>
@@ -15205,10 +15784,10 @@
       <c r="AL99" s="1">
         <v>108223000</v>
       </c>
-      <c r="AS99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT99" s="24">
+      <c r="AS99" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT99" s="43">
         <f>AT86+AT87</f>
         <v>5000995000</v>
       </c>
@@ -15218,13 +15797,13 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10">
         <v>12900000</v>
@@ -15328,12 +15907,12 @@
       <c r="AL100" s="10">
         <v>-4578937000</v>
       </c>
-      <c r="AS100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT100" s="34">
+      <c r="AS100" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT100" s="45">
         <f>AT99/AT103</f>
-        <v>5.6652680298217926E-2</v>
+        <v>5.41499510891729E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15341,46 +15920,46 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P101" s="1">
         <v>-4403000</v>
@@ -15451,12 +16030,12 @@
       <c r="AL101" s="1">
         <v>-30227000</v>
       </c>
-      <c r="AS101" s="57" t="s">
-        <v>142</v>
+      <c r="AS101" s="47" t="s">
+        <v>140</v>
       </c>
       <c r="AT101" s="50" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>83273645735</v>
+        <v>87353566720</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15464,13 +16043,13 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10">
         <v>12900000</v>
@@ -15574,12 +16153,12 @@
       <c r="AL102" s="10">
         <v>-897215000</v>
       </c>
-      <c r="AS102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT102" s="34">
+      <c r="AS102" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT102" s="45">
         <f>AT101/AT103</f>
-        <v>0.94334731970178209</v>
+        <v>0.94585004891082713</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15587,13 +16166,13 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1">
         <v>7200000</v>
@@ -15697,12 +16276,12 @@
       <c r="AL103" s="1">
         <v>4670750000</v>
       </c>
-      <c r="AS103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT103" s="38">
+      <c r="AS103" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT103" s="51">
         <f>AT99+AT101</f>
-        <v>88274640735</v>
+        <v>92354561720</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15710,28 +16289,28 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11">
         <v>24100000</v>
@@ -15820,427 +16399,552 @@
       <c r="AL104" s="11">
         <v>3773535000</v>
       </c>
-      <c r="AS104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT104" s="65"/>
+      <c r="AS104" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT104" s="70"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+        <v>162</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AK105" si="10">(B22*(1-$AT$91))+B77+B88+B81</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-0.41584158415841588</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>1.2711864406779663</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AL105" si="8">(H106/G106)-1</f>
-        <v>-0.52985074626865669</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.46638655462184875</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.4888976377952754</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>-9.7767947820984413E-2</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.0160342196763139</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.97444482741641636</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-68.820809248554909</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.9871019063041564</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.8333860987192403</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.9432277593807773</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>4.0973340490248704</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.3363929937870758</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.027883986989476</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.20957078105889382</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.3966548129827654</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.32749862164430954</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.2383781615373231</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>-3.5743029629690142</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.3912345338169541</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.48010770596642749</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.4272608460368188</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.2191301610693603E-2</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.745535792394671E-2</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.0008020598122056</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.59314675470468026</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.27267754103799269</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.20578790552571946</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.33047962731007807</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.68419654203488744</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.21161247976655007</v>
-      </c>
-      <c r="AM105" s="15"/>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT105" s="26">
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>-9984785.5448580571</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>-18952994.484619439</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>-19884858.718680158</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>-9141382.4152521975</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>-18871372.282603465</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>8470522.3494034559</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>-16000233.359406322</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>29283090.805247098</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>42120515.531143747</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>-92764535.641620815</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>-93505355.349025652</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>73142324.229739606</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>203872745.14328012</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>-79129088.491413817</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>34593548.294144899</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>130757088.60310018</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>345311020.96430004</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>282981344.89864844</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>696956561.79779601</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>503692599.43648452</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>-416932052.75948107</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>252386250.73125678</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="10"/>
+        <v>811478972.19009626</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="10"/>
+        <v>281578112.42117929</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="10"/>
+        <v>438743101.83138669</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="10"/>
+        <v>649281110.87374544</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="10"/>
+        <v>361969917.70294273</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="10"/>
+        <v>985110944.79574299</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="10"/>
+        <v>1508168563.446903</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="10"/>
+        <v>2570026665.9187531</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="10"/>
+        <v>2675698764.879415</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="10"/>
+        <v>1838710349.4928088</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="10"/>
+        <v>3211845050.3308802</v>
+      </c>
+      <c r="AL105" s="1">
+        <f>(AL22*(1-$AT$91))+AL77+AL88+AL81</f>
+        <v>2756537435.5633249</v>
+      </c>
+      <c r="AM105" s="27">
+        <f>AL105*(1+$AT$106)</f>
+        <v>2971451287.0605664</v>
+      </c>
+      <c r="AN105" s="27">
+        <f t="shared" ref="AN105:AQ105" si="11">AM105*(1+$AT$106)</f>
+        <v>3203120928.9815063</v>
+      </c>
+      <c r="AO105" s="27">
+        <f t="shared" si="11"/>
+        <v>3452852729.0207672</v>
+      </c>
+      <c r="AP105" s="27">
+        <f t="shared" si="11"/>
+        <v>3722054906.0247469</v>
+      </c>
+      <c r="AQ105" s="27">
+        <f t="shared" si="11"/>
+        <v>4012245470.8318272</v>
+      </c>
+      <c r="AR105" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS105" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT105" s="53">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>0.10037941341636322</v>
+        <v>0.10120373177169616</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-10100000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-5900000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-13400000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-6300000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>-23800000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>-12700000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>-44309000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>-39977000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>40618000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>1038000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>-70398000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>69490000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>196892000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>11178000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>56978000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>133123000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>403081000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>318607000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>763591000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>513516000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>-122411000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>315123000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>753533000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>391756000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>559138000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>571546000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>587238000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>1174947000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>1871863000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>2382278000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>2872522000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>1923212000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>3239067000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>2553640000</v>
-      </c>
-      <c r="AM106" s="39">
-        <f>AL106*(1+$AT$106)</f>
-        <v>2763027067.4365187</v>
-      </c>
-      <c r="AN106" s="39">
-        <f t="shared" ref="AN106:AQ106" si="9">AM106*(1+$AT$106)</f>
-        <v>2989582938.623631</v>
-      </c>
-      <c r="AO106" s="39">
-        <f t="shared" si="9"/>
-        <v>3234715378.7391729</v>
-      </c>
-      <c r="AP106" s="39">
-        <f t="shared" si="9"/>
-        <v>3499947583.4140701</v>
-      </c>
-      <c r="AQ106" s="39">
-        <f t="shared" si="9"/>
-        <v>3786927643.5136156</v>
-      </c>
-      <c r="AR106" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS106" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT106" s="42">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:AL106" si="12">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.41584158415841588</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.2711864406779663</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.52985074626865669</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.46638655462184875</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.4888976377952754</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="12"/>
+        <v>-9.7767947820984413E-2</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="12"/>
+        <v>-2.0160342196763139</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.97444482741641636</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="12"/>
+        <v>-68.820809248554909</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.9871019063041564</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.8333860987192403</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.9432277593807773</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="12"/>
+        <v>4.0973340490248704</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.3363929937870758</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.027883986989476</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.20957078105889382</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.3966548129827654</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.32749862164430954</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.2383781615373231</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="12"/>
+        <v>-3.5743029629690142</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.3912345338169541</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.48010770596642749</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.4272608460368188</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.2191301610693603E-2</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.745535792394671E-2</v>
+      </c>
+      <c r="AF106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.0008020598122056</v>
+      </c>
+      <c r="AG106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.59314675470468026</v>
+      </c>
+      <c r="AH106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.27267754103799269</v>
+      </c>
+      <c r="AI106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.20578790552571946</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.33047962731007807</v>
+      </c>
+      <c r="AK106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.68419654203488744</v>
+      </c>
+      <c r="AL106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.21161247976655007</v>
+      </c>
+      <c r="AM106" s="41">
+        <v>4330000000</v>
+      </c>
+      <c r="AN106" s="41">
+        <v>4222000000</v>
+      </c>
+      <c r="AO106" s="41">
+        <v>3822000000</v>
+      </c>
+      <c r="AP106" s="41">
+        <v>4234000000</v>
+      </c>
+      <c r="AQ106" s="41">
+        <v>5694000000</v>
+      </c>
+      <c r="AR106" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS106" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT106" s="55">
         <f>(SUM(AM4:AQ4)/5)</f>
-        <v>8.19955308643813E-2</v>
+        <v>7.7965148858325423E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="40"/>
-      <c r="AN107" s="40"/>
-      <c r="AO107" s="40"/>
-      <c r="AP107" s="40"/>
-      <c r="AQ107" s="43">
+      <c r="A107" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-10100000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-5900000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-13400000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-6300000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-23800000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>-12700000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>-44309000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>-39977000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>40618000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>1038000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>-70398000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>69490000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>196892000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>11178000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>56978000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>133123000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>403081000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>318607000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>763591000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>513516000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>-122411000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>315123000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>753533000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>391756000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>559138000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>571546000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>587238000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>1174947000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>1871863000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>2382278000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>2872522000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>1923212000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>3239067000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>2553640000</v>
+      </c>
+      <c r="AM107" s="28"/>
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="28"/>
+      <c r="AP107" s="28"/>
+      <c r="AQ107" s="65">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>51494176707.918564</v>
-      </c>
-      <c r="AR107" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS107" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT107" s="46">
+        <v>76588768874.016693</v>
+      </c>
+      <c r="AR107" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS107" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM108" s="43">
-        <f t="shared" ref="AM108:AO108" si="10">AM107+AM106</f>
-        <v>2763027067.4365187</v>
-      </c>
-      <c r="AN108" s="43">
-        <f t="shared" si="10"/>
-        <v>2989582938.623631</v>
-      </c>
-      <c r="AO108" s="43">
-        <f t="shared" si="10"/>
-        <v>3234715378.7391729</v>
-      </c>
-      <c r="AP108" s="43">
-        <f>AP107+AP106</f>
-        <v>3499947583.4140701</v>
-      </c>
-      <c r="AQ108" s="43">
+      <c r="AM108" s="65">
+        <f t="shared" ref="AM108:AP108" si="13">AM107+AM106</f>
+        <v>4330000000</v>
+      </c>
+      <c r="AN108" s="65">
+        <f t="shared" si="13"/>
+        <v>4222000000</v>
+      </c>
+      <c r="AO108" s="65">
+        <f t="shared" si="13"/>
+        <v>3822000000</v>
+      </c>
+      <c r="AP108" s="65">
+        <f t="shared" si="13"/>
+        <v>4234000000</v>
+      </c>
+      <c r="AQ108" s="65">
         <f>AQ107+AQ106</f>
-        <v>55281104351.432182</v>
-      </c>
-      <c r="AR108" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS108" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT108" s="48">
+        <v>82282768874.016693</v>
+      </c>
+      <c r="AR108" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS108" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT108" s="55">
         <f>AT105</f>
-        <v>0.10037941341636322</v>
+        <v>0.10120373177169616</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN109" s="61"/>
+      <c r="AM109" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN109" s="67"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM110" s="49" t="s">
-        <v>152</v>
+      <c r="AM110" s="59" t="s">
+        <v>149</v>
       </c>
       <c r="AN110" s="50">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>44061075518.848846</v>
+        <v>63967562478.035385</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM111" s="49" t="s">
-        <v>153</v>
+      <c r="AM111" s="59" t="s">
+        <v>150</v>
       </c>
       <c r="AN111" s="50">
         <f>AL40</f>
@@ -16248,8 +16952,8 @@
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM112" s="49" t="s">
-        <v>140</v>
+      <c r="AM112" s="59" t="s">
+        <v>138</v>
       </c>
       <c r="AN112" s="50">
         <f>AT99</f>
@@ -16257,55 +16961,55 @@
       </c>
     </row>
     <row r="113" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM113" s="49" t="s">
-        <v>154</v>
+      <c r="AM113" s="59" t="s">
+        <v>151</v>
       </c>
       <c r="AN113" s="50">
         <f>AN110+AN111-AN112</f>
-        <v>42717812518.848846</v>
+        <v>62624299478.035385</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM114" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN114" s="51">
+      <c r="AM114" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN114" s="59">
         <f>AL34*(1+(5*AR16))</f>
         <v>104493342.02552839</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN115" s="53">
+      <c r="AM115" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN115" s="61">
         <f>AN113/AN114</f>
-        <v>408.80894122816568</v>
+        <v>599.31377697476523</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM116" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN116" s="59" cm="1">
+      <c r="AM116" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN116" s="62" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>619.87</v>
+        <v>650.24</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="AN117" s="55">
+      <c r="AM117" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN117" s="63">
         <f>AN115/AN116-1</f>
-        <v>-0.34049245611472456</v>
+        <v>-7.8319117595402887E-2</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN118" s="56" t="str">
+      <c r="AM118" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN118" s="64" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -16396,8 +17100,9 @@
     <hyperlink ref="AL36" r:id="rId74" tooltip="https://www.sec.gov/Archives/edgar/data/707549/000070754922000107/0000707549-22-000107-index.htm" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="AL74" r:id="rId75" tooltip="https://www.sec.gov/Archives/edgar/data/707549/000070754922000107/0000707549-22-000107-index.htm" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="AM1" r:id="rId76" display="https://finbox.com/NASDAQGS:LRCX/explorer/revenue_proj" xr:uid="{C554888B-D135-3741-9621-62D5575B6486}"/>
+    <hyperlink ref="AR106" r:id="rId77" xr:uid="{774A9ED4-316A-8F4F-A339-123EBC2F3A81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId77"/>
+  <drawing r:id="rId78"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Lam Research.xlsx
+++ b/Technology/Hardware/Lam Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB7DA36-7DED-724A-BBF0-521FCA7F4696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACDD3D0-456B-B24F-8ED6-3B2008EA473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2760,8 +2760,9 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Investable"/>
+      <sheetName val="Top 10"/>
       <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
       <sheetName val="Aggressive Growth"/>
@@ -2772,7 +2773,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.8390000000000001E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2792,6 +2793,7 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3540,7 +3542,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AK78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO91" sqref="AO91"/>
+      <selection pane="bottomRight" activeCell="AM90" sqref="AM90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15178,7 +15180,7 @@
       </c>
       <c r="AT94" s="46">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8390000000000001E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15546,7 +15548,7 @@
       </c>
       <c r="AT97" s="45">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>0.105121991</v>
+        <v>0.10478392800000001</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16584,7 +16586,7 @@
       </c>
       <c r="AT105" s="53">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>0.10120373177169616</v>
+        <v>0.10088397486661123</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16883,7 +16885,7 @@
       <c r="AP107" s="28"/>
       <c r="AQ107" s="65">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>76588768874.016693</v>
+        <v>76911495612.336197</v>
       </c>
       <c r="AR107" s="29" t="s">
         <v>145</v>
@@ -16914,7 +16916,7 @@
       </c>
       <c r="AQ108" s="65">
         <f>AQ107+AQ106</f>
-        <v>82282768874.016693</v>
+        <v>82605495612.336197</v>
       </c>
       <c r="AR108" s="29" t="s">
         <v>142</v>
@@ -16924,7 +16926,7 @@
       </c>
       <c r="AT108" s="55">
         <f>AT105</f>
-        <v>0.10120373177169616</v>
+        <v>0.10088397486661123</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16939,7 +16941,7 @@
       </c>
       <c r="AN110" s="50">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>63967562478.035385</v>
+        <v>64249989866.950127</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16966,7 +16968,7 @@
       </c>
       <c r="AN113" s="50">
         <f>AN110+AN111-AN112</f>
-        <v>62624299478.035385</v>
+        <v>62906726866.950127</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16984,7 +16986,7 @@
       </c>
       <c r="AN115" s="61">
         <f>AN113/AN114</f>
-        <v>599.31377697476523</v>
+        <v>602.01660361845461</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -17002,7 +17004,7 @@
       </c>
       <c r="AN117" s="63">
         <f>AN115/AN116-1</f>
-        <v>-7.8319117595402887E-2</v>
+        <v>-7.4162457525752679E-2</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
